--- a/tests/integration/res/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/res/ai-and-nanotech-applicants_aliased.xlsx
@@ -106,12 +106,12 @@
     <t>Equal1 Labs Inc</t>
   </si>
   <si>
+    <t>Ibm</t>
+  </si>
+  <si>
     <t>Google Llc</t>
   </si>
   <si>
-    <t>Ibm</t>
-  </si>
-  <si>
     <t>Rigetti &amp; Co Inc</t>
   </si>
   <si>
@@ -421,25 +421,25 @@
     <t>US</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>AU;;US</t>
   </si>
   <si>
-    <t>WO</t>
-  </si>
-  <si>
     <t>WO;;CA;;US</t>
   </si>
   <si>
     <t>US;;KR</t>
   </si>
   <si>
+    <t>WO;;US</t>
+  </si>
+  <si>
     <t>US;;WO</t>
   </si>
   <si>
-    <t>TW;;GB;;WO;;EP;;SG;;CA</t>
-  </si>
-  <si>
-    <t>WO;;US</t>
+    <t>GB;;WO;;TW;;CA;;SG;;EP</t>
   </si>
   <si>
     <t>EP;;FR;;WO</t>
@@ -457,121 +457,118 @@
     <t>CN;;US</t>
   </si>
   <si>
+    <t>CA;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US;;WO</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;CA;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>JP;;KR;;CN;;EP</t>
+  </si>
+  <si>
+    <t>JP;;US</t>
+  </si>
+  <si>
+    <t>CA;;AU;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;US;;TW</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;SG;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;GB;;JP;;WO;;DE;;US</t>
+  </si>
+  <si>
+    <t>EP;;SG;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US</t>
+  </si>
+  <si>
+    <t>CN;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;CA;;US</t>
+  </si>
+  <si>
+    <t>US;;KR;;WO;;CA</t>
+  </si>
+  <si>
+    <t>TW;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US;;CA</t>
+  </si>
+  <si>
+    <t>EP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;WO;;KR;;US</t>
+  </si>
+  <si>
+    <t>TW;;CN;;EP;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>TW;;SG;;EP;;GB;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
+  </si>
+  <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP</t>
-  </si>
-  <si>
-    <t>CN;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>JP;;US</t>
-  </si>
-  <si>
-    <t>EP;;CA;;KR;;AU</t>
+    <t>EP;;CN;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;CA</t>
+  </si>
+  <si>
+    <t>JP;;CN;;EP;;KR</t>
+  </si>
+  <si>
+    <t>EP;;KR;;AU;;CA</t>
   </si>
   <si>
     <t>CN;;TW;;US</t>
   </si>
   <si>
-    <t>AU;;CA;;CN;;KR;;JP;;US;;WO;;EP;;SG</t>
-  </si>
-  <si>
-    <t>AU;;CN;;CA;;KR;;JP;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>RU;;AU;;CA;;CN;;KR;;IL;;TW;;JP;;WO;;US;;EP;;ZA</t>
-  </si>
-  <si>
-    <t>JP;;CA;;EP;;AU;;US;;SG;;WO;;CN;;KR</t>
-  </si>
-  <si>
-    <t>DE;;JP;;US;;GB;;WO;;CN</t>
-  </si>
-  <si>
-    <t>WO;;EP;;US</t>
-  </si>
-  <si>
-    <t>US;;WO;;CN;;EP</t>
-  </si>
-  <si>
-    <t>JP;;CA;;EP;;AU;;US;;WO;;CN;;KR</t>
-  </si>
-  <si>
-    <t>WO;;EP;;US;;CA</t>
-  </si>
-  <si>
-    <t>WO;;US;;KR;;CA</t>
-  </si>
-  <si>
-    <t>US;;WO;;TW;;EP</t>
-  </si>
-  <si>
-    <t>CA;;EP;;AU;;US;;WO;;KR</t>
-  </si>
-  <si>
-    <t>WO;;US;;CA</t>
-  </si>
-  <si>
-    <t>WO;;CN;;US;;KR</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;WO;;TW;;CN;;KR</t>
-  </si>
-  <si>
-    <t>EP;;WO;;CN;;US</t>
-  </si>
-  <si>
-    <t>CA;;EP;;GB;;SG;;WO;;TW</t>
-  </si>
-  <si>
-    <t>JP;;CA;;EP;;US;;CN;;KR</t>
-  </si>
-  <si>
-    <t>WO;;EP;;FR</t>
-  </si>
-  <si>
-    <t>EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>JP;;CN;;US</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;WO;;CN;;KR</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;CN;;KR</t>
-  </si>
-  <si>
-    <t>JP;;CA;;EP;;CN;;KR</t>
-  </si>
-  <si>
-    <t>JP;;CN;;EP;;KR</t>
-  </si>
-  <si>
-    <t>EP;;AU;;KR;;CA</t>
-  </si>
-  <si>
-    <t>TW;;CN;;US</t>
-  </si>
-  <si>
-    <t>TW;;JP;;CA;;IL;;EP;;AU;;RU;;US;;ZA;;WO;;CN;;KR</t>
+    <t>TW;;EP;;IL;;CN;;ZA;;JP;;AU;;KR;;US;;WO;;RU;;CA</t>
   </si>
   <si>
     <t>GB</t>
@@ -595,10 +592,10 @@
     <t>RU</t>
   </si>
   <si>
-    <t>AU;;US;;CA</t>
-  </si>
-  <si>
-    <t>US;;IB</t>
+    <t>IB;;US</t>
+  </si>
+  <si>
+    <t>CA;;AU;;US</t>
   </si>
   <si>
     <t>US;;CA</t>
@@ -613,19 +610,19 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>구글 엘엘씨;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;GOOGLE INC;;ラミ・バレントス;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+    <t>国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;BARENDS RAMI;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
+    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
     <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
@@ -643,7 +640,7 @@
     <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
   </si>
   <si>
-    <t>HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
@@ -655,34 +652,34 @@
     <t>IRIDIA INC;;DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
   </si>
   <si>
-    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
     <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
-    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
-  </si>
-  <si>
-    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
-  </si>
-  <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+    <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+  </si>
+  <si>
+    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+  </si>
+  <si>
+    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
     <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
   </si>
   <si>
-    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
     <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>东南大学;;UNIV SOUTHEAST</t>
@@ -694,136 +691,136 @@
     <t>HITACHI LTD;;株式会社日立製作所</t>
   </si>
   <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;GOOGLE INC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;NEVEN HELMUT;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;BARENDS RAMI;;바엔즈 라미;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;FARHI EDWARD HENRY</t>
-  </si>
-  <si>
-    <t>CHEN RICHARD;;DOUGLAS TEMPLETON MCCLURE III;;GREENBERG DON;;JAVADIABHARI ALI;;BISHOP LEV;;ガンベッタ、ジェイ;;OLIVADESE SALVATORE;;ANDO TAKASHI;;MISGEN MARVIN M;;ダイアル、オリバー;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;CORCOLES-GONZALEZ ANTONIO;;M·斯蒂芬;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;MATTHIAS STEFFEN;;JAY GAMBETTA;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO;;マクルーア ザ サード、ダグラス、テンプルトン;;O·蒂亚尔;;STEFFEN MATTHIAS;;TEMME PAUL;;PRISCO JOSEPH F;;FARO SERTAGE ISMAEL;;NANNICINI GIACOMO;;OLIVER DIAL;;LIU PENG;;D·T·麦克鲁尔三世;;MCCLURE III DOUGLAS T;;BISHOP LEV SAMUEL;;PHAN ANNA T;;HEKMATSHOARTABARI BAHMAN;;DIAL OLIVER;;PISTOIA MARCO;;HASHEMI POUYA;;LEE CHOONGHYUN;;ステファン、マティアス;;TEMME PAUL KRISTAN;;REZNICEK ALEXANDER;;ZHANG JINGYUN;;PHAN ANNA;;MARTIN FERNANDEZ FRANCISCO JOSE;;GAMBETTA JAY</t>
-  </si>
-  <si>
-    <t>REAGOR MATTHEW J;;RUST MICHAEL;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;DESAI ANAND;;CURTIS MICHAEL;;CURTIS MICHAEL J;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;ZENG WILLIAM;;OSBORN CHRISTOPHER BUTLER;;DA SILVA MARCUS PALMER;;SMITH ROBERT STANLEY;;SETE EYOB;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;DAVIS ERIK JOSEPH;;HEIDEL STEVEN;;JONES GLENN;;KARALEKAS PETER JONATHAN</t>
-  </si>
-  <si>
-    <t>张严波;;WANG GUILEI;;ZHU ZHENGYONG;;朱正勇;;RADAMSON HENRY H;;ZHU HUILONG;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;ZHANG YANBO;;HENRY H ADAMSON</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;BOOTHBY KELLY T R;;ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;MACREADY WILLIAM G;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;XUE YANBO;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
-  </si>
-  <si>
-    <t>ZHOU LEO XIANGYU;;BHASKAR MIHIR;;SIPAHIGIL ALP;;NGUYEN CHRISTIAN;;LUKIN MIKHAIL D;;EVANS RUFFIN;;LUKIN MIKHAIL;;ZHOU LEO;;PICHLER HANNES;;CHOI SOONWON;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS;;BHASKAR MIHIR KESHAV;;WANG SHENGTAO;;SUKACHEV DENIS D;;EVANS RUFFIN E</t>
-  </si>
-  <si>
-    <t>WALUS KONRAD;;RASHIDI MOHAMMAD;;WALUS CONRAD;;VINE WYATT;;CROSHAW JEREMIAH;;WOLKOW ROBERT A;;HUFF TALEANA;;LIVADARU LUCIAN;;WOLKOW ROBERT;;RETALLICK JACOB;;DIENEL THOMAS</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
-  </si>
-  <si>
-    <t>MASILAMANI ASHOK;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;LEAKE DEVIN;;PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
+    <t>IUCF HYU;;한양대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>구글 엘엘씨;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+  </si>
+  <si>
+    <t>TEMME PAUL;;KUCZYNSKI JOSEPH;;DOUGLAS TEMPLETON MCCLURE III;;OLIVADESE SALVATORE;;GREENBERG DON;;LIU PENG;;PISTOIA MARCO;;JAVADIABHARI ALI;;FARO SERTAGE ISMAEL;;TEMME PAUL KRISTAN;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;ZHANG JINGYUN;;MATTHIAS STEFFEN;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;ステファン、マティアス;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;MARTIN FERNANDEZ FRANCISCO JOSE;;BISHOP LEV;;HASHEMI POUYA;;HEKMATSHOARTABARI BAHMAN;;CHEN RICHARD;;MISGEN MARVIN M;;DIAL OLIVER;;PHAN ANNA;;STEFFEN MATTHIAS;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE BERNARDO;;M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;PHAN ANNA T;;ANDO TAKASHI;;BISHOP LEV SAMUEL;;ガンベッタ、ジェイ;;GAMBETTA JAY M;;OLIVER DIAL;;NANNICINI GIACOMO;;REZNICEK ALEXANDER;;JAY GAMBETTA;;ダイアル、オリバー;;O·蒂亚尔</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;セルジオ・バイショ・カストリージョ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;NIU YUEZHEN;;ライアン・バブシュ;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>MCKIERNAN KERI ANN;;ZENG WILLIAM;;CURTIS MICHAEL J;;SETE EYOB;;DESAI ANAND;;JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;JONES GLENN;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL;;REAGOR MATTHEW J;;HEIDEL STEVEN;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;DAVIS ERIK JOSEPH;;PETERSON ERIC CHRISTOPHER;;ALAM MUHAMMAD SOHAIB;;RUST MICHAEL;;SMITH ROBERT STANLEY</t>
+  </si>
+  <si>
+    <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;张严波;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;朱慧珑;;RADAMSON HENRY H;;王桂磊;;ZHU HUILONG;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;SIPAHIGIL ALP;;EVANS RUFFIN E;;WANG SHENGTAO;;LUKIN MIKHAIL D;;SUKACHEV DENIS D;;PICHLER HANNES;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;LUNKIN MIKHAIL;;ZHOU LEO;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;LUKIN MIKHAIL</t>
+  </si>
+  <si>
+    <t>WOLKOW ROBERT;;WOLKOW ROBERT A;;HUFF TALEANA;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN;;WALUS CONRAD;;RETALLICK JACOB;;WALUS KONRAD</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
+  </si>
+  <si>
+    <t>MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V;;GAHROOSI AMIR;;GOULD MATTHEW</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>WOO SOL-A;;HEO JUN;;KIM SANG SIG;;CHO JIN SUN;;LIM DOO HYEOK;;CHO KYOUNG AH;;WOO SOL A;;CHO JIN-SUN;;CHO KYOUNG-AH;;KIM SANG-SIK;;PARK YOUNG-SOO;;SOHN IL KWON;;PARK YOUNG SOO;;LIM DOO-HYEOK</t>
-  </si>
-  <si>
-    <t>GOTTSCHO RICHARD ALAN;;バヘディ・バヘド;;DAUGHERTY JOHN;;VAHEDI VAHID;;GUHA JOYDEEP;;ダウガティ・ジョン;;ゴットショ・リチャード・アラン;;グーハ・ジョイディープ</t>
-  </si>
-  <si>
-    <t>A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;R·格拉斯;;GRASS ROBERT;;B·H·阮;;WIEBE NATHAN O;;W·陈;;STRAUSS KARIN;;K·施特劳斯;;GAMBLE IV JOHN KING;;CHEN WEIDA;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
-  </si>
-  <si>
-    <t>MREJEN MICHAEL;;NAGLER ACHIYA;;SUCHOWSKI HAIM;;ARIELI URI;;WOLF LIOR;;MALKIEL ITZIK</t>
+    <t>PARK YOUNG-SOO;;KIM SANG-SIK;;LIM DOO-HYEOK;;CHO JIN SUN;;WOO SOL-A;;HEO JUN;;SOHN IL KWON;;WOO SOL A;;CHO KYOUNG AH;;KIM SANG SIG;;CHO JIN-SUN;;CHO KYOUNG-AH;;LIM DOO HYEOK;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン;;グーハ・ジョイディープ</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;B·H·阮;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR;;ARIELI URI;;SUCHOWSKI HAIM</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
-  </si>
-  <si>
-    <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;JOHNSON PETER D</t>
-  </si>
-  <si>
-    <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA;;ポール・エフ・プレドキ;;マジャ・キャシディ</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID;;SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
-  </si>
-  <si>
-    <t>BYRNES STEVEN J;;HUANG HAIYAO;;SPRACHMAN MELISSA;;BYRNES STEVEN;;FAVALORA GREGG;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;KOTZ KENNETH T;;FRANK IAN WARD;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;VARGO EMMA;;KOTZ KENNETH;;FRANK IAN;;MAGYAR ANDREW;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;DUBAY RYAN;;MAGYAR ANDREW P;;DUBAY RYAN A;;CAVANAGH PETER</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;CAI QING;;COVENS KRIS</t>
-  </si>
-  <si>
-    <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>JOHNSON PETER D;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC</t>
+  </si>
+  <si>
+    <t>SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>FRANK IAN WARD;;DUBAY RYAN;;MAGYAR ANDREW P;;DUBAY RYAN A;;SPRACHMAN MELISSA;;FRANK IAN;;SPRACHMAN MELISSA M;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;ROSENBERGER ERIN;;HUANG HAIYAO;;FAVALORA GREGG E;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;MAGYAR ANDREW;;CAVANAGH PETER;;KOTZ KENNETH T;;VARGO EMMA;;FAVALORA GREGG;;BYRNES STEVEN;;BYRNES STEVEN J</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;CAI QING;;COSTA JOSE DIOGO;;COVENS KRIS;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN</t>
+  </si>
+  <si>
+    <t>XU JUN;;LIANG RENRONG;;LIU YU;;ZHAO LINYUAN</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>SIU MAN-HUNG;;JIANG ZHUOLIN;;FONG KIN CHUNG</t>
-  </si>
-  <si>
-    <t>MA YUNPU;;TRESP VOLKER</t>
-  </si>
-  <si>
-    <t>LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG-SOO;;CHOI YONG SOO</t>
-  </si>
-  <si>
-    <t>AHN DO YEOL;;안도열</t>
-  </si>
-  <si>
-    <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
+    <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+  </si>
+  <si>
+    <t>TRESP VOLKER;;MA YUNPU</t>
+  </si>
+  <si>
+    <t>HEO KEUN;;LEE HYUNG-DONG;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO</t>
+  </si>
+  <si>
+    <t>안도열;;AHN DO YEOL</t>
+  </si>
+  <si>
+    <t>POOSER RAPHAEL C;;MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J</t>
   </si>
   <si>
     <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
@@ -835,22 +832,22 @@
     <t>RIZIK LUNA;;DANIEL RAMEZ</t>
   </si>
   <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;MANSSON ALF;;DIEZ STEFAN</t>
-  </si>
-  <si>
-    <t>WANG WEI;;CHEN YIXIANG;;WANG ZEHONG;;YU DAN</t>
-  </si>
-  <si>
-    <t>MCLEAN MARK;;WU QING;;XIA QIANGFEI;;YANG JIANHUA</t>
-  </si>
-  <si>
-    <t>WANG KAIYANG;;YAN XIAOBING;;REN DELIANG</t>
-  </si>
-  <si>
-    <t>CHEN CHANGSHENG;;WU SHUO;;ZHU YU;;ZHOU WENLI;;GAO JUNXIONG;;WANG YUNBO;;CHENG RUNHONG</t>
-  </si>
-  <si>
-    <t>DICKINSON BENJAMIN T;;REICH GREGORY W;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;KONDASH COREY R;;PANKONIEN ALEXANDER M;;SLINKER KEITH</t>
+    <t>MANSSON ALF;;TAKATSUKI HIDEYO;;DIEZ STEFAN;;KORTEN TILL;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>YU DAN;;WANG ZEHONG;;WANG WEI;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>YANG JIANHUA;;WU QING;;MCLEAN MARK;;XIA QIANGFEI</t>
+  </si>
+  <si>
+    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU;;CHENG RUNHONG;;CHEN CHANGSHENG;;WU SHUO</t>
+  </si>
+  <si>
+    <t>PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T;;KONDASH COREY R;;MAGAR KAMAN THAPA;;REICH GREGORY W;;SLINKER KEITH;;BAUR JEFFREY W</t>
   </si>
   <si>
     <t>Huilong Zhu;;Zhengyong Zhu</t>
@@ -865,7 +862,7 @@
     <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
   </si>
   <si>
-    <t>KOUL RAMAN;;WANG GANG;;VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH)</t>
+    <t>VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;KOUL RAMAN;;WANG GANG;;BHAT SUMRITA;;SALAHANDISH RAZIEH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -874,55 +871,58 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
-  </si>
-  <si>
-    <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
-  </si>
-  <si>
-    <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
+    <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
+  </si>
+  <si>
+    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+  </si>
+  <si>
+    <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー;;フォスナー ショーン</t>
-  </si>
-  <si>
-    <t>CHEN YICHENG;;GU DEEN;;李伟;;GU DE'EN;;顾德恩;;LI DONGYANG;;JIANG YADONG;;陈奕丞;;李东阳;;ZHONG HAO;;LI WEI;;蒋亚东;;钟豪</t>
+    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>ZHONG HAO;;李东阳;;陈奕丞;;钟豪;;JIANG YADONG;;李伟;;蒋亚东;;CHEN YICHENG;;GU DEEN;;GU DE'EN;;LI WEI;;LI DONGYANG;;顾德恩</t>
   </si>
   <si>
     <t>JIANG WEINAN;;YU XING</t>
   </si>
   <si>
-    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;신현동;;JEONG YOUNG MIN;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD</t>
-  </si>
-  <si>
-    <t>张晋;;LI YUAN;;XING YAN;;张辉;;ZHANG HUI;;李源;;ZHANG JIN;;幸研</t>
-  </si>
-  <si>
-    <t>A·X·C·科尔;;R·格拉斯;;GRASS ROBERT;;B·H·阮;;W·陈;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
-  </si>
-  <si>
-    <t>新海 剛;;SHINKAI GOU</t>
-  </si>
-  <si>
-    <t>트린수안텅;;YOON TAE HYUN;;TRINH XUAN TUNG;;김진배;;윤태현;;하키우;;HA KIEU MY;;KIM JIN BAE</t>
-  </si>
-  <si>
-    <t>LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
-  </si>
-  <si>
-    <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;GERBEN DOORNBOS</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+    <t>CHOI JEONG WOO;;정용호;;CHUNG YONG HO;;최정우</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;FAROOQ AHMAD</t>
+  </si>
+  <si>
+    <t>李源;;幸研;;LI YUAN;;XING YAN;;张晋;;ZHANG HUI;;ZHANG JIN;;张辉</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;B·H·阮;;STRAUSS KARIN;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>SHINKAI GOU;;新海 剛</t>
+  </si>
+  <si>
+    <t>KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;YOON TAE HYUN;;윤태현;;김진배;;하키우;;트린수안텅</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
+  </si>
+  <si>
+    <t>VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
   </si>
   <si>
     <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO</t>
@@ -934,13 +934,13 @@
     <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
-    <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+    <t>BARENDS RAMI;;ラミ・バレントス;;바엔즈 라미</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1416,7 @@
         <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1481,28 +1481,28 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>15.26190476190476</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.9426490861574633</v>
+        <v>0.767296193239003</v>
       </c>
       <c r="F3">
-        <v>0.9763528843592768</v>
+        <v>0.9800699186991868</v>
       </c>
       <c r="G3">
-        <v>1.611316708653388</v>
+        <v>0.8395350735201745</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
         <v>161</v>
@@ -1511,58 +1511,58 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M3">
-        <v>0.8333333333333336</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.833333333333334</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
-        <v>199</v>
-      </c>
-      <c r="R3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>4.833333333333334</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1570,25 +1570,25 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14.26190476190476</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.767296193239003</v>
+        <v>0.9426490861574633</v>
       </c>
       <c r="F4">
-        <v>0.9800699186991868</v>
+        <v>1.039920605637288</v>
       </c>
       <c r="G4">
-        <v>0.8395350735201745</v>
+        <v>1.611316708653388</v>
       </c>
       <c r="H4">
-        <v>3.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
         <v>134</v>
@@ -1600,58 +1600,58 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8333333333333336</v>
       </c>
       <c r="N4">
-        <v>4.999999999999999</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="U4">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" t="s">
-        <v>236</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>5.999999999999999</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1680,7 +1680,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
         <v>163</v>
@@ -1704,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>0.6</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
         <v>165</v>
@@ -1956,7 +1956,7 @@
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>4.25</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
         <v>166</v>
@@ -2057,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>2.75</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
         <v>167</v>
@@ -2122,7 +2122,7 @@
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2309,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
         <v>134</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2656,7 +2656,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2745,7 +2745,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2831,10 +2831,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>1.047526829268292</v>
+        <v>1.047526829268293</v>
       </c>
       <c r="H19">
         <v>4.666666666666667</v>
@@ -2893,7 +2893,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2979,16 +2979,16 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" t="s">
         <v>139</v>
       </c>
-      <c r="J20" t="s">
-        <v>141</v>
-      </c>
       <c r="K20" t="s">
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3151,16 +3151,16 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" t="s">
         <v>139</v>
       </c>
-      <c r="J22" t="s">
-        <v>141</v>
-      </c>
       <c r="K22" t="s">
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K23" t="s">
         <v>134</v>
@@ -3261,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s">
         <v>174</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3501,10 +3501,10 @@
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3528,7 +3528,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>10.5</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3700,7 +3700,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3762,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3786,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s">
         <v>134</v>
@@ -3875,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3937,13 +3937,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s">
         <v>134</v>
@@ -4127,7 +4127,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4468,10 +4468,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4776,10 +4776,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
         <v>134</v>
@@ -4803,7 +4803,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4865,16 +4865,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5446,16 +5446,16 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5642,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5728,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="K53" t="s">
         <v>134</v>
@@ -5811,7 +5811,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5870,13 +5870,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6033,10 +6033,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s">
         <v>134</v>
@@ -6060,7 +6060,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6288,10 +6288,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K59" t="s">
         <v>134</v>
@@ -6315,7 +6315,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6371,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K60" t="s">
         <v>134</v>
@@ -6398,7 +6398,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6463,13 +6463,13 @@
         <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6484,10 +6484,10 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6573,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6656,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6896,13 +6896,13 @@
         <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6917,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7006,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7157,7 +7157,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7178,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R69" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7267,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7350,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         <v>155</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R73" t="s">
         <v>298</v>
@@ -7611,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R74" t="s">
         <v>299</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R76" t="s">
         <v>299</v>
@@ -7872,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R78" t="s">
         <v>300</v>
@@ -8017,7 +8017,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R79" t="s">
         <v>301</v>
@@ -8100,7 +8100,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R80" t="s">
         <v>301</v>
@@ -8186,10 +8186,10 @@
         <v>155</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R81" t="s">
         <v>298</v>
@@ -8287,10 +8287,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8355,13 +8355,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R83" t="s">
         <v>302</v>
@@ -8444,13 +8444,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R84" t="s">
         <v>302</v>
@@ -8530,10 +8530,10 @@
         <v>143</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R85" t="s">
         <v>303</v>
@@ -8613,10 +8613,10 @@
         <v>143</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R86" t="s">
         <v>303</v>
@@ -8696,10 +8696,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R87" t="s">
         <v>304</v>
@@ -8779,16 +8779,16 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R88" t="s">
         <v>305</v>
@@ -8868,16 +8868,16 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R89" t="s">
         <v>305</v>
@@ -8957,10 +8957,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R90" t="s">
         <v>304</v>
@@ -9040,16 +9040,16 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R91" t="s">
         <v>305</v>
@@ -9132,7 +9132,7 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K92" t="s">
         <v>134</v>
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R92" t="s">
         <v>306</v>
@@ -9242,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9331,10 +9331,10 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9420,10 +9420,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9509,10 +9509,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9598,10 +9598,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R98" t="s">
         <v>307</v>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R99" t="s">
         <v>307</v>
@@ -9832,13 +9832,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R100" t="s">
         <v>308</v>
@@ -9921,13 +9921,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R101" t="s">
         <v>308</v>
@@ -10010,13 +10010,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R102" t="s">
         <v>308</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R103" t="s">
         <v>307</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R104" t="s">
         <v>307</v>
@@ -10265,13 +10265,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R105" t="s">
         <v>308</v>
@@ -10354,13 +10354,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R106" t="s">
         <v>308</v>
